--- a/Project1JavaTry2/excel/Compare.xlsx
+++ b/Project1JavaTry2/excel/Compare.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngoalie\Documents\GitHub\CS4323Projects\Project1JavaTry2\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\School Work\_College Sp 2016\Op Sys\CS4323Projects\Project1JavaTry2\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14040" windowHeight="11700" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14040" windowHeight="11700" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="2" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511" refMode="R1C1"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -515,7 +516,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="square"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
@@ -857,7 +858,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="triangle"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
@@ -1185,6 +1186,694 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Worst Worst</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dash"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$Y:$Y</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="0">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>605</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>735</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>930</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1035</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1115</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1215</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1325</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1425</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1515</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1610</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1725</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1805</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2115</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2220</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2315</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2405</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2515</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2601</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2704</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2802</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2936</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3010</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3107</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3215</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3304</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3403</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3508</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3624</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3705</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3801</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3903</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4022</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4119</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4205</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4301</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4406</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4501</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4605</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4703</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4819</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4908</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Z:$Z</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>96</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Best Best</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AG:$AG</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="0">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>303</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>433</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>518</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>623</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>753</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>843</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>913</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1118</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1208</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1318</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1443</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1518</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1603</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1723</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1818</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1903</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2118</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2218</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2323</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2413</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2553</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2623</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2718</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2823</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2938</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3033</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3108</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3223</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3313</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3443</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3503</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3608</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3713</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3803</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3933</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4028</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4123</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4228</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4303</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4408</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4513</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4618</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4703</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4813</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4903</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AH:$AH</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>163</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -1193,727 +1882,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="188972784"/>
-        <c:axId val="188962992"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredScatterSeries>
-              <c15:ser>
-                <c:idx val="3"/>
-                <c:order val="3"/>
-                <c:tx>
-                  <c:v>Worst Worst</c:v>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="25400" cap="rnd">
-                    <a:noFill/>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="circle"/>
-                  <c:size val="5"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent4"/>
-                    </a:solidFill>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="accent4"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:marker>
-                <c:xVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$Y:$Y</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="1048576"/>
-                      <c:pt idx="0">
-                        <c:v>125</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>245</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>305</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>410</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>520</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>605</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>735</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>805</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>930</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>1035</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>1115</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>1215</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>1325</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>1425</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>1515</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>1610</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>1725</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>1805</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>1950</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>2015</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>2115</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>2220</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>2315</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>2405</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>2515</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>2601</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>2704</c:v>
-                      </c:pt>
-                      <c:pt idx="27">
-                        <c:v>2802</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>2936</c:v>
-                      </c:pt>
-                      <c:pt idx="29">
-                        <c:v>3010</c:v>
-                      </c:pt>
-                      <c:pt idx="30">
-                        <c:v>3107</c:v>
-                      </c:pt>
-                      <c:pt idx="31">
-                        <c:v>3215</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
-                        <c:v>3304</c:v>
-                      </c:pt>
-                      <c:pt idx="33">
-                        <c:v>3403</c:v>
-                      </c:pt>
-                      <c:pt idx="34">
-                        <c:v>3508</c:v>
-                      </c:pt>
-                      <c:pt idx="35">
-                        <c:v>3624</c:v>
-                      </c:pt>
-                      <c:pt idx="36">
-                        <c:v>3705</c:v>
-                      </c:pt>
-                      <c:pt idx="37">
-                        <c:v>3801</c:v>
-                      </c:pt>
-                      <c:pt idx="38">
-                        <c:v>3903</c:v>
-                      </c:pt>
-                      <c:pt idx="39">
-                        <c:v>4022</c:v>
-                      </c:pt>
-                      <c:pt idx="40">
-                        <c:v>4119</c:v>
-                      </c:pt>
-                      <c:pt idx="41">
-                        <c:v>4205</c:v>
-                      </c:pt>
-                      <c:pt idx="42">
-                        <c:v>4301</c:v>
-                      </c:pt>
-                      <c:pt idx="43">
-                        <c:v>4406</c:v>
-                      </c:pt>
-                      <c:pt idx="44">
-                        <c:v>4501</c:v>
-                      </c:pt>
-                      <c:pt idx="45">
-                        <c:v>4605</c:v>
-                      </c:pt>
-                      <c:pt idx="46">
-                        <c:v>4703</c:v>
-                      </c:pt>
-                      <c:pt idx="47">
-                        <c:v>4819</c:v>
-                      </c:pt>
-                      <c:pt idx="48">
-                        <c:v>4908</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:xVal>
-                <c:yVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$Z:$Z</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="1048576"/>
-                      <c:pt idx="0">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>7</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>11</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>14</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>18</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>21</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>26</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>28</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>32</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>35</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>37</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>39</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>41</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>44</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>46</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>50</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>54</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>57</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>61</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>64</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>67</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>70</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>74</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>76</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>79</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>79</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>79</c:v>
-                      </c:pt>
-                      <c:pt idx="27">
-                        <c:v>79</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>81</c:v>
-                      </c:pt>
-                      <c:pt idx="29">
-                        <c:v>82</c:v>
-                      </c:pt>
-                      <c:pt idx="30">
-                        <c:v>82</c:v>
-                      </c:pt>
-                      <c:pt idx="31">
-                        <c:v>83</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
-                        <c:v>84</c:v>
-                      </c:pt>
-                      <c:pt idx="33">
-                        <c:v>84</c:v>
-                      </c:pt>
-                      <c:pt idx="34">
-                        <c:v>86</c:v>
-                      </c:pt>
-                      <c:pt idx="35">
-                        <c:v>88</c:v>
-                      </c:pt>
-                      <c:pt idx="36">
-                        <c:v>89</c:v>
-                      </c:pt>
-                      <c:pt idx="37">
-                        <c:v>89</c:v>
-                      </c:pt>
-                      <c:pt idx="38">
-                        <c:v>89</c:v>
-                      </c:pt>
-                      <c:pt idx="39">
-                        <c:v>91</c:v>
-                      </c:pt>
-                      <c:pt idx="40">
-                        <c:v>92</c:v>
-                      </c:pt>
-                      <c:pt idx="41">
-                        <c:v>92</c:v>
-                      </c:pt>
-                      <c:pt idx="42">
-                        <c:v>93</c:v>
-                      </c:pt>
-                      <c:pt idx="43">
-                        <c:v>95</c:v>
-                      </c:pt>
-                      <c:pt idx="44">
-                        <c:v>95</c:v>
-                      </c:pt>
-                      <c:pt idx="45">
-                        <c:v>95</c:v>
-                      </c:pt>
-                      <c:pt idx="46">
-                        <c:v>95</c:v>
-                      </c:pt>
-                      <c:pt idx="47">
-                        <c:v>96</c:v>
-                      </c:pt>
-                      <c:pt idx="48">
-                        <c:v>96</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:yVal>
-                <c:smooth val="0"/>
-              </c15:ser>
-            </c15:filteredScatterSeries>
-            <c15:filteredScatterSeries>
-              <c15:ser>
-                <c:idx val="4"/>
-                <c:order val="4"/>
-                <c:tx>
-                  <c:v>Best Best</c:v>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="25400" cap="rnd">
-                    <a:noFill/>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="circle"/>
-                  <c:size val="5"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent5"/>
-                    </a:solidFill>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="accent5"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:marker>
-                <c:xVal>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$AG:$AG</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="1048576"/>
-                      <c:pt idx="0">
-                        <c:v>103</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>248</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>303</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>433</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>518</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>623</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>753</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>843</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>913</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>1003</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>1118</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>1208</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>1318</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>1443</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>1518</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>1603</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>1723</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>1818</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>1903</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>2008</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>2118</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>2218</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>2323</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>2413</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>2553</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>2623</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>2718</c:v>
-                      </c:pt>
-                      <c:pt idx="27">
-                        <c:v>2823</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>2938</c:v>
-                      </c:pt>
-                      <c:pt idx="29">
-                        <c:v>3033</c:v>
-                      </c:pt>
-                      <c:pt idx="30">
-                        <c:v>3108</c:v>
-                      </c:pt>
-                      <c:pt idx="31">
-                        <c:v>3223</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
-                        <c:v>3313</c:v>
-                      </c:pt>
-                      <c:pt idx="33">
-                        <c:v>3443</c:v>
-                      </c:pt>
-                      <c:pt idx="34">
-                        <c:v>3503</c:v>
-                      </c:pt>
-                      <c:pt idx="35">
-                        <c:v>3608</c:v>
-                      </c:pt>
-                      <c:pt idx="36">
-                        <c:v>3713</c:v>
-                      </c:pt>
-                      <c:pt idx="37">
-                        <c:v>3803</c:v>
-                      </c:pt>
-                      <c:pt idx="38">
-                        <c:v>3933</c:v>
-                      </c:pt>
-                      <c:pt idx="39">
-                        <c:v>4028</c:v>
-                      </c:pt>
-                      <c:pt idx="40">
-                        <c:v>4123</c:v>
-                      </c:pt>
-                      <c:pt idx="41">
-                        <c:v>4228</c:v>
-                      </c:pt>
-                      <c:pt idx="42">
-                        <c:v>4303</c:v>
-                      </c:pt>
-                      <c:pt idx="43">
-                        <c:v>4408</c:v>
-                      </c:pt>
-                      <c:pt idx="44">
-                        <c:v>4513</c:v>
-                      </c:pt>
-                      <c:pt idx="45">
-                        <c:v>4618</c:v>
-                      </c:pt>
-                      <c:pt idx="46">
-                        <c:v>4703</c:v>
-                      </c:pt>
-                      <c:pt idx="47">
-                        <c:v>4813</c:v>
-                      </c:pt>
-                      <c:pt idx="48">
-                        <c:v>4903</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:xVal>
-                <c:yVal>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$AH:$AH</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="1048576"/>
-                      <c:pt idx="0">
-                        <c:v>2</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>7</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>8</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>13</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>15</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>20</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>23</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>25</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>28</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>32</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>37</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>41</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>45</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>49</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>51</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>55</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>59</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>62</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>66</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>68</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>72</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>75</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>78</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>80</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>84</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>86</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>88</c:v>
-                      </c:pt>
-                      <c:pt idx="27">
-                        <c:v>92</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>95</c:v>
-                      </c:pt>
-                      <c:pt idx="29">
-                        <c:v>98</c:v>
-                      </c:pt>
-                      <c:pt idx="30">
-                        <c:v>101</c:v>
-                      </c:pt>
-                      <c:pt idx="31">
-                        <c:v>105</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
-                        <c:v>109</c:v>
-                      </c:pt>
-                      <c:pt idx="33">
-                        <c:v>114</c:v>
-                      </c:pt>
-                      <c:pt idx="34">
-                        <c:v>116</c:v>
-                      </c:pt>
-                      <c:pt idx="35">
-                        <c:v>119</c:v>
-                      </c:pt>
-                      <c:pt idx="36">
-                        <c:v>123</c:v>
-                      </c:pt>
-                      <c:pt idx="37">
-                        <c:v>126</c:v>
-                      </c:pt>
-                      <c:pt idx="38">
-                        <c:v>131</c:v>
-                      </c:pt>
-                      <c:pt idx="39">
-                        <c:v>134</c:v>
-                      </c:pt>
-                      <c:pt idx="40">
-                        <c:v>137</c:v>
-                      </c:pt>
-                      <c:pt idx="41">
-                        <c:v>140</c:v>
-                      </c:pt>
-                      <c:pt idx="42">
-                        <c:v>143</c:v>
-                      </c:pt>
-                      <c:pt idx="43">
-                        <c:v>145</c:v>
-                      </c:pt>
-                      <c:pt idx="44">
-                        <c:v>151</c:v>
-                      </c:pt>
-                      <c:pt idx="45">
-                        <c:v>154</c:v>
-                      </c:pt>
-                      <c:pt idx="46">
-                        <c:v>158</c:v>
-                      </c:pt>
-                      <c:pt idx="47">
-                        <c:v>161</c:v>
-                      </c:pt>
-                      <c:pt idx="48">
-                        <c:v>163</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:yVal>
-                <c:smooth val="0"/>
-              </c15:ser>
-            </c15:filteredScatterSeries>
-          </c:ext>
-        </c:extLst>
+        <c:axId val="-1390922544"/>
+        <c:axId val="-1390920912"/>
+        <c:extLst/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="188972784"/>
+        <c:axId val="-1390922544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5000"/>
@@ -1971,12 +1945,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="188962992"/>
+        <c:crossAx val="-1390920912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="188962992"/>
+        <c:axId val="-1390920912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2033,7 +2007,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="188972784"/>
+        <c:crossAx val="-1390922544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2541,7 +2515,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="square"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
@@ -2883,7 +2857,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="triangle"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
@@ -3211,6 +3185,694 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Worst Worst</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dash"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$Y:$Y</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="0">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>605</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>735</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>930</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1035</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1115</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1215</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1325</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1425</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1515</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1610</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1725</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1805</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2115</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2220</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2315</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2405</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2515</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2601</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2704</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2802</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2936</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3010</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3107</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3215</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3304</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3403</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3508</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3624</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3705</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3801</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3903</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4022</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4119</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4205</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4301</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4406</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4501</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4605</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4703</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4819</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4908</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AA:$AA</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>326</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>378</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>399</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>415</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>431</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>444</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>463</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>487</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>504</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>526</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>541</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>552</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>575</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>592</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>607</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>619</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>654</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>672</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>686</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>703</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>722</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>741</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>754</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>778</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Best Best</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AG:$AG</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="0">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>303</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>433</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>518</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>623</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>753</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>843</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>913</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1118</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1208</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1318</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1443</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1518</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1603</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1723</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1818</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1903</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2118</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2218</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2323</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2413</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2553</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2623</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2718</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2823</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2938</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3033</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3108</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3223</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3313</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3443</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3503</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3608</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3713</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3803</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3933</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4028</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4123</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4228</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4303</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4408</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4513</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4618</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4703</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4813</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4903</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AI:$AI</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>133</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -3219,727 +3881,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="188961904"/>
-        <c:axId val="188971152"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredScatterSeries>
-              <c15:ser>
-                <c:idx val="3"/>
-                <c:order val="3"/>
-                <c:tx>
-                  <c:v>Worst Worst</c:v>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="25400" cap="rnd">
-                    <a:noFill/>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="circle"/>
-                  <c:size val="5"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent4"/>
-                    </a:solidFill>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="accent4"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:marker>
-                <c:xVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$Y:$Y</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="1048576"/>
-                      <c:pt idx="0">
-                        <c:v>125</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>245</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>305</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>410</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>520</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>605</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>735</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>805</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>930</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>1035</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>1115</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>1215</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>1325</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>1425</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>1515</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>1610</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>1725</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>1805</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>1950</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>2015</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>2115</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>2220</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>2315</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>2405</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>2515</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>2601</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>2704</c:v>
-                      </c:pt>
-                      <c:pt idx="27">
-                        <c:v>2802</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>2936</c:v>
-                      </c:pt>
-                      <c:pt idx="29">
-                        <c:v>3010</c:v>
-                      </c:pt>
-                      <c:pt idx="30">
-                        <c:v>3107</c:v>
-                      </c:pt>
-                      <c:pt idx="31">
-                        <c:v>3215</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
-                        <c:v>3304</c:v>
-                      </c:pt>
-                      <c:pt idx="33">
-                        <c:v>3403</c:v>
-                      </c:pt>
-                      <c:pt idx="34">
-                        <c:v>3508</c:v>
-                      </c:pt>
-                      <c:pt idx="35">
-                        <c:v>3624</c:v>
-                      </c:pt>
-                      <c:pt idx="36">
-                        <c:v>3705</c:v>
-                      </c:pt>
-                      <c:pt idx="37">
-                        <c:v>3801</c:v>
-                      </c:pt>
-                      <c:pt idx="38">
-                        <c:v>3903</c:v>
-                      </c:pt>
-                      <c:pt idx="39">
-                        <c:v>4022</c:v>
-                      </c:pt>
-                      <c:pt idx="40">
-                        <c:v>4119</c:v>
-                      </c:pt>
-                      <c:pt idx="41">
-                        <c:v>4205</c:v>
-                      </c:pt>
-                      <c:pt idx="42">
-                        <c:v>4301</c:v>
-                      </c:pt>
-                      <c:pt idx="43">
-                        <c:v>4406</c:v>
-                      </c:pt>
-                      <c:pt idx="44">
-                        <c:v>4501</c:v>
-                      </c:pt>
-                      <c:pt idx="45">
-                        <c:v>4605</c:v>
-                      </c:pt>
-                      <c:pt idx="46">
-                        <c:v>4703</c:v>
-                      </c:pt>
-                      <c:pt idx="47">
-                        <c:v>4819</c:v>
-                      </c:pt>
-                      <c:pt idx="48">
-                        <c:v>4908</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:xVal>
-                <c:yVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$AA:$AA</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="1048576"/>
-                      <c:pt idx="0">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>18</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>33</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>47</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>63</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>73</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>86</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>96</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>117</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>131</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>147</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>164</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>174</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>193</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>207</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>221</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>244</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>255</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>277</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>291</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>306</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>326</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>340</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>358</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>378</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>399</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>415</c:v>
-                      </c:pt>
-                      <c:pt idx="27">
-                        <c:v>431</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>444</c:v>
-                      </c:pt>
-                      <c:pt idx="29">
-                        <c:v>463</c:v>
-                      </c:pt>
-                      <c:pt idx="30">
-                        <c:v>480</c:v>
-                      </c:pt>
-                      <c:pt idx="31">
-                        <c:v>487</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
-                        <c:v>504</c:v>
-                      </c:pt>
-                      <c:pt idx="33">
-                        <c:v>526</c:v>
-                      </c:pt>
-                      <c:pt idx="34">
-                        <c:v>541</c:v>
-                      </c:pt>
-                      <c:pt idx="35">
-                        <c:v>552</c:v>
-                      </c:pt>
-                      <c:pt idx="36">
-                        <c:v>575</c:v>
-                      </c:pt>
-                      <c:pt idx="37">
-                        <c:v>592</c:v>
-                      </c:pt>
-                      <c:pt idx="38">
-                        <c:v>607</c:v>
-                      </c:pt>
-                      <c:pt idx="39">
-                        <c:v>619</c:v>
-                      </c:pt>
-                      <c:pt idx="40">
-                        <c:v>630</c:v>
-                      </c:pt>
-                      <c:pt idx="41">
-                        <c:v>654</c:v>
-                      </c:pt>
-                      <c:pt idx="42">
-                        <c:v>672</c:v>
-                      </c:pt>
-                      <c:pt idx="43">
-                        <c:v>686</c:v>
-                      </c:pt>
-                      <c:pt idx="44">
-                        <c:v>703</c:v>
-                      </c:pt>
-                      <c:pt idx="45">
-                        <c:v>722</c:v>
-                      </c:pt>
-                      <c:pt idx="46">
-                        <c:v>741</c:v>
-                      </c:pt>
-                      <c:pt idx="47">
-                        <c:v>754</c:v>
-                      </c:pt>
-                      <c:pt idx="48">
-                        <c:v>778</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:yVal>
-                <c:smooth val="0"/>
-              </c15:ser>
-            </c15:filteredScatterSeries>
-            <c15:filteredScatterSeries>
-              <c15:ser>
-                <c:idx val="4"/>
-                <c:order val="4"/>
-                <c:tx>
-                  <c:v>Best Best</c:v>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="25400" cap="rnd">
-                    <a:noFill/>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="circle"/>
-                  <c:size val="5"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent5"/>
-                    </a:solidFill>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="accent5"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:marker>
-                <c:xVal>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$AG:$AG</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="1048576"/>
-                      <c:pt idx="0">
-                        <c:v>103</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>248</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>303</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>433</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>518</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>623</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>753</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>843</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>913</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>1003</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>1118</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>1208</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>1318</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>1443</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>1518</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>1603</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>1723</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>1818</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>1903</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>2008</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>2118</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>2218</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>2323</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>2413</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>2553</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>2623</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>2718</c:v>
-                      </c:pt>
-                      <c:pt idx="27">
-                        <c:v>2823</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>2938</c:v>
-                      </c:pt>
-                      <c:pt idx="29">
-                        <c:v>3033</c:v>
-                      </c:pt>
-                      <c:pt idx="30">
-                        <c:v>3108</c:v>
-                      </c:pt>
-                      <c:pt idx="31">
-                        <c:v>3223</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
-                        <c:v>3313</c:v>
-                      </c:pt>
-                      <c:pt idx="33">
-                        <c:v>3443</c:v>
-                      </c:pt>
-                      <c:pt idx="34">
-                        <c:v>3503</c:v>
-                      </c:pt>
-                      <c:pt idx="35">
-                        <c:v>3608</c:v>
-                      </c:pt>
-                      <c:pt idx="36">
-                        <c:v>3713</c:v>
-                      </c:pt>
-                      <c:pt idx="37">
-                        <c:v>3803</c:v>
-                      </c:pt>
-                      <c:pt idx="38">
-                        <c:v>3933</c:v>
-                      </c:pt>
-                      <c:pt idx="39">
-                        <c:v>4028</c:v>
-                      </c:pt>
-                      <c:pt idx="40">
-                        <c:v>4123</c:v>
-                      </c:pt>
-                      <c:pt idx="41">
-                        <c:v>4228</c:v>
-                      </c:pt>
-                      <c:pt idx="42">
-                        <c:v>4303</c:v>
-                      </c:pt>
-                      <c:pt idx="43">
-                        <c:v>4408</c:v>
-                      </c:pt>
-                      <c:pt idx="44">
-                        <c:v>4513</c:v>
-                      </c:pt>
-                      <c:pt idx="45">
-                        <c:v>4618</c:v>
-                      </c:pt>
-                      <c:pt idx="46">
-                        <c:v>4703</c:v>
-                      </c:pt>
-                      <c:pt idx="47">
-                        <c:v>4813</c:v>
-                      </c:pt>
-                      <c:pt idx="48">
-                        <c:v>4903</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:xVal>
-                <c:yVal>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$AI:$AI</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="1048576"/>
-                      <c:pt idx="0">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>2</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>3</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>6</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>6</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>13</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>14</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>14</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>17</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>22</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>23</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>23</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>23</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>24</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>26</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>26</c:v>
-                      </c:pt>
-                      <c:pt idx="27">
-                        <c:v>26</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>27</c:v>
-                      </c:pt>
-                      <c:pt idx="29">
-                        <c:v>27</c:v>
-                      </c:pt>
-                      <c:pt idx="30">
-                        <c:v>27</c:v>
-                      </c:pt>
-                      <c:pt idx="31">
-                        <c:v>31</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
-                        <c:v>31</c:v>
-                      </c:pt>
-                      <c:pt idx="33">
-                        <c:v>36</c:v>
-                      </c:pt>
-                      <c:pt idx="34">
-                        <c:v>64</c:v>
-                      </c:pt>
-                      <c:pt idx="35">
-                        <c:v>64</c:v>
-                      </c:pt>
-                      <c:pt idx="36">
-                        <c:v>76</c:v>
-                      </c:pt>
-                      <c:pt idx="37">
-                        <c:v>76</c:v>
-                      </c:pt>
-                      <c:pt idx="38">
-                        <c:v>77</c:v>
-                      </c:pt>
-                      <c:pt idx="39">
-                        <c:v>78</c:v>
-                      </c:pt>
-                      <c:pt idx="40">
-                        <c:v>92</c:v>
-                      </c:pt>
-                      <c:pt idx="41">
-                        <c:v>92</c:v>
-                      </c:pt>
-                      <c:pt idx="42">
-                        <c:v>92</c:v>
-                      </c:pt>
-                      <c:pt idx="43">
-                        <c:v>108</c:v>
-                      </c:pt>
-                      <c:pt idx="44">
-                        <c:v>113</c:v>
-                      </c:pt>
-                      <c:pt idx="45">
-                        <c:v>118</c:v>
-                      </c:pt>
-                      <c:pt idx="46">
-                        <c:v>123</c:v>
-                      </c:pt>
-                      <c:pt idx="47">
-                        <c:v>127</c:v>
-                      </c:pt>
-                      <c:pt idx="48">
-                        <c:v>133</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:yVal>
-                <c:smooth val="0"/>
-              </c15:ser>
-            </c15:filteredScatterSeries>
-          </c:ext>
-        </c:extLst>
+        <c:axId val="-1256780272"/>
+        <c:axId val="-1256782448"/>
+        <c:extLst/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="188961904"/>
+        <c:axId val="-1256780272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5000"/>
@@ -3997,12 +3944,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="188971152"/>
+        <c:crossAx val="-1256782448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="188971152"/>
+        <c:axId val="-1256782448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4059,7 +4006,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="188961904"/>
+        <c:crossAx val="-1256780272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4576,7 +4523,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="square"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
@@ -4920,7 +4867,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="triangle"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
@@ -5245,6 +5192,668 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Worst Worst</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dash"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$Y:$Y</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="0">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>605</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>735</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>930</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1035</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1115</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1215</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1325</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1425</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1515</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1610</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1725</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1805</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2115</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2220</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2315</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2405</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2515</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2601</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2704</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2802</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2936</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3010</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3107</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3215</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3304</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3403</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3508</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3624</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3705</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3801</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3903</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4022</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4119</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4205</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4301</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4406</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4501</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4605</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4703</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4819</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4908</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AB:$AB</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="0">
+                  <c:v>117.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52.22222</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43.846153000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44.285713000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43.636364</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48.333331999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>46.666668000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45.185184</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43.928570000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42.592593999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43.214286999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42.857143000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42.333331999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42.333331999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42.258063999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43.030304000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42.571429999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>41.944443</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42.105263000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>41.842106000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>41.578949999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42.051279999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42.051279999999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42.051279999999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>41.578949999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>41.794871999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>41.794871999999998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>41.578949999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>41.578949999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>41.794871999999998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>41.794871999999998</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>41.578949999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>41.794871999999998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>41.794871999999998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>41.794871999999998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>41.578949999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41.578949999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41.794871999999998</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>41.794871999999998</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>41.794871999999998</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>41.794871999999998</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>41.794871999999998</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>41.794871999999998</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>41.578949999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>41.794871999999998</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Best Best</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AG$6:$AG$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="44"/>
+                <c:pt idx="0">
+                  <c:v>623</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>753</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>843</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>913</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1118</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1208</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1318</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1443</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1518</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1603</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1723</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1818</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1903</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2118</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2218</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2323</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2413</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2553</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2623</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2718</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2823</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2938</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3033</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3108</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3223</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3313</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3443</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3503</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3608</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3713</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3803</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3933</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4028</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4123</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4228</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4303</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4408</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4513</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4618</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4703</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4813</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4903</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AJ$6:$AJ$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="44"/>
+                <c:pt idx="0">
+                  <c:v>91.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>73.846149999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>93.125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>78.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>87.058819999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>68.421049999999994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>64.375</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60.526318000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>71.176469999999995</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>76.666663999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>57.647060000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>56.842106000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>30.588235999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>50.454543999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>53.75</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45.238093999999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>48.636364</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>57.692307</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>53.333331999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44.347828</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>52.22222</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>53.703704999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>38.636364</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>42.8</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>41.904761999999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>47.083331999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40.454543999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>46.4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>53.928570000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>47.6</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43.333331999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43.478259999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>47.083331999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>47.916668000000001</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -5253,701 +5862,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="188969520"/>
-        <c:axId val="188974416"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredScatterSeries>
-              <c15:ser>
-                <c:idx val="3"/>
-                <c:order val="3"/>
-                <c:tx>
-                  <c:v>Worst Worst</c:v>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="19050" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent4"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="circle"/>
-                  <c:size val="5"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent4"/>
-                    </a:solidFill>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="accent4"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:marker>
-                <c:xVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$Y:$Y</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="1048576"/>
-                      <c:pt idx="0">
-                        <c:v>125</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>245</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>305</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>410</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>520</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>605</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>735</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>805</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>930</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>1035</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>1115</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>1215</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>1325</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>1425</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>1515</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>1610</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>1725</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>1805</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>1950</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>2015</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>2115</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>2220</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>2315</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>2405</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>2515</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>2601</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>2704</c:v>
-                      </c:pt>
-                      <c:pt idx="27">
-                        <c:v>2802</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>2936</c:v>
-                      </c:pt>
-                      <c:pt idx="29">
-                        <c:v>3010</c:v>
-                      </c:pt>
-                      <c:pt idx="30">
-                        <c:v>3107</c:v>
-                      </c:pt>
-                      <c:pt idx="31">
-                        <c:v>3215</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
-                        <c:v>3304</c:v>
-                      </c:pt>
-                      <c:pt idx="33">
-                        <c:v>3403</c:v>
-                      </c:pt>
-                      <c:pt idx="34">
-                        <c:v>3508</c:v>
-                      </c:pt>
-                      <c:pt idx="35">
-                        <c:v>3624</c:v>
-                      </c:pt>
-                      <c:pt idx="36">
-                        <c:v>3705</c:v>
-                      </c:pt>
-                      <c:pt idx="37">
-                        <c:v>3801</c:v>
-                      </c:pt>
-                      <c:pt idx="38">
-                        <c:v>3903</c:v>
-                      </c:pt>
-                      <c:pt idx="39">
-                        <c:v>4022</c:v>
-                      </c:pt>
-                      <c:pt idx="40">
-                        <c:v>4119</c:v>
-                      </c:pt>
-                      <c:pt idx="41">
-                        <c:v>4205</c:v>
-                      </c:pt>
-                      <c:pt idx="42">
-                        <c:v>4301</c:v>
-                      </c:pt>
-                      <c:pt idx="43">
-                        <c:v>4406</c:v>
-                      </c:pt>
-                      <c:pt idx="44">
-                        <c:v>4501</c:v>
-                      </c:pt>
-                      <c:pt idx="45">
-                        <c:v>4605</c:v>
-                      </c:pt>
-                      <c:pt idx="46">
-                        <c:v>4703</c:v>
-                      </c:pt>
-                      <c:pt idx="47">
-                        <c:v>4819</c:v>
-                      </c:pt>
-                      <c:pt idx="48">
-                        <c:v>4908</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:xVal>
-                <c:yVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$AB:$AB</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="1048576"/>
-                      <c:pt idx="0">
-                        <c:v>117.5</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>68</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>52.22222</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>52</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>43.846153000000001</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>42.5</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>44.285713000000001</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>43.636364</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>48.333331999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>46.666668000000001</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>45.185184</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>43.928570000000001</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>42.592593999999998</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>43.214286999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>42.857143000000001</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>42.333331999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>42.333331999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>42.258063999999997</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>43.030304000000001</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>44</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>42.571429999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>41.944443</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>42.105263000000001</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>41.842106000000001</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>41.578949999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>42.051279999999998</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>42.051279999999998</c:v>
-                      </c:pt>
-                      <c:pt idx="27">
-                        <c:v>42.051279999999998</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>41.578949999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="29">
-                        <c:v>41.794871999999998</c:v>
-                      </c:pt>
-                      <c:pt idx="30">
-                        <c:v>41.794871999999998</c:v>
-                      </c:pt>
-                      <c:pt idx="31">
-                        <c:v>41.578949999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
-                        <c:v>41.578949999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="33">
-                        <c:v>41.794871999999998</c:v>
-                      </c:pt>
-                      <c:pt idx="34">
-                        <c:v>41.794871999999998</c:v>
-                      </c:pt>
-                      <c:pt idx="35">
-                        <c:v>41.578949999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="36">
-                        <c:v>41.794871999999998</c:v>
-                      </c:pt>
-                      <c:pt idx="37">
-                        <c:v>41.794871999999998</c:v>
-                      </c:pt>
-                      <c:pt idx="38">
-                        <c:v>41.794871999999998</c:v>
-                      </c:pt>
-                      <c:pt idx="39">
-                        <c:v>41.578949999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="40">
-                        <c:v>41.578949999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="41">
-                        <c:v>41.794871999999998</c:v>
-                      </c:pt>
-                      <c:pt idx="42">
-                        <c:v>41.794871999999998</c:v>
-                      </c:pt>
-                      <c:pt idx="43">
-                        <c:v>41.794871999999998</c:v>
-                      </c:pt>
-                      <c:pt idx="44">
-                        <c:v>41.794871999999998</c:v>
-                      </c:pt>
-                      <c:pt idx="45">
-                        <c:v>41.794871999999998</c:v>
-                      </c:pt>
-                      <c:pt idx="46">
-                        <c:v>41.794871999999998</c:v>
-                      </c:pt>
-                      <c:pt idx="47">
-                        <c:v>41.578949999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="48">
-                        <c:v>41.794871999999998</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:yVal>
-                <c:smooth val="0"/>
-              </c15:ser>
-            </c15:filteredScatterSeries>
-            <c15:filteredScatterSeries>
-              <c15:ser>
-                <c:idx val="4"/>
-                <c:order val="4"/>
-                <c:tx>
-                  <c:v>Best Best</c:v>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="19050" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent5"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="circle"/>
-                  <c:size val="5"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent5"/>
-                    </a:solidFill>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="accent5"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:marker>
-                <c:xVal>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$AG$6:$AG$49</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="44"/>
-                      <c:pt idx="0">
-                        <c:v>623</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>753</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>843</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>913</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>1003</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>1118</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>1208</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>1318</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>1443</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>1518</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>1603</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>1723</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>1818</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>1903</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>2008</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>2118</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>2218</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>2323</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>2413</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>2553</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>2623</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>2718</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>2823</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>2938</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>3033</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>3108</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>3223</c:v>
-                      </c:pt>
-                      <c:pt idx="27">
-                        <c:v>3313</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>3443</c:v>
-                      </c:pt>
-                      <c:pt idx="29">
-                        <c:v>3503</c:v>
-                      </c:pt>
-                      <c:pt idx="30">
-                        <c:v>3608</c:v>
-                      </c:pt>
-                      <c:pt idx="31">
-                        <c:v>3713</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
-                        <c:v>3803</c:v>
-                      </c:pt>
-                      <c:pt idx="33">
-                        <c:v>3933</c:v>
-                      </c:pt>
-                      <c:pt idx="34">
-                        <c:v>4028</c:v>
-                      </c:pt>
-                      <c:pt idx="35">
-                        <c:v>4123</c:v>
-                      </c:pt>
-                      <c:pt idx="36">
-                        <c:v>4228</c:v>
-                      </c:pt>
-                      <c:pt idx="37">
-                        <c:v>4303</c:v>
-                      </c:pt>
-                      <c:pt idx="38">
-                        <c:v>4408</c:v>
-                      </c:pt>
-                      <c:pt idx="39">
-                        <c:v>4513</c:v>
-                      </c:pt>
-                      <c:pt idx="40">
-                        <c:v>4618</c:v>
-                      </c:pt>
-                      <c:pt idx="41">
-                        <c:v>4703</c:v>
-                      </c:pt>
-                      <c:pt idx="42">
-                        <c:v>4813</c:v>
-                      </c:pt>
-                      <c:pt idx="43">
-                        <c:v>4903</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:xVal>
-                <c:yVal>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$AJ$6:$AJ$49</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="44"/>
-                      <c:pt idx="0">
-                        <c:v>91.25</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>110</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>85</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>73.846149999999994</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>93.125</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>78.75</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>84</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>87.058819999999997</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>68.421049999999994</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>64.375</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>60.526318000000003</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>62.5</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>71.176469999999995</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>76.666663999999997</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>57.647060000000003</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>56.842106000000001</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>30.588235999999998</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>39</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>50.454543999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>53.75</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>45.238093999999997</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>48.636364</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>57.692307</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>53.333331999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>44</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>45</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>44.347828</c:v>
-                      </c:pt>
-                      <c:pt idx="27">
-                        <c:v>52.22222</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>53.703704999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="29">
-                        <c:v>38.636364</c:v>
-                      </c:pt>
-                      <c:pt idx="30">
-                        <c:v>42.8</c:v>
-                      </c:pt>
-                      <c:pt idx="31">
-                        <c:v>41.904761999999998</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
-                        <c:v>50</c:v>
-                      </c:pt>
-                      <c:pt idx="33">
-                        <c:v>47.083331999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="34">
-                        <c:v>46</c:v>
-                      </c:pt>
-                      <c:pt idx="35">
-                        <c:v>40.454543999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="36">
-                        <c:v>46.4</c:v>
-                      </c:pt>
-                      <c:pt idx="37">
-                        <c:v>53.928570000000001</c:v>
-                      </c:pt>
-                      <c:pt idx="38">
-                        <c:v>47.6</c:v>
-                      </c:pt>
-                      <c:pt idx="39">
-                        <c:v>43.75</c:v>
-                      </c:pt>
-                      <c:pt idx="40">
-                        <c:v>43.333331999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="41">
-                        <c:v>43.478259999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="42">
-                        <c:v>47.083331999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="43">
-                        <c:v>47.916668000000001</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:yVal>
-                <c:smooth val="0"/>
-              </c15:ser>
-            </c15:filteredScatterSeries>
-          </c:ext>
-        </c:extLst>
+        <c:axId val="-1256786800"/>
+        <c:axId val="-1256787344"/>
+        <c:extLst/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="188969520"/>
+        <c:axId val="-1256786800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5000"/>
@@ -6005,12 +5925,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="188974416"/>
+        <c:crossAx val="-1256787344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="188974416"/>
+        <c:axId val="-1256787344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6067,7 +5987,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="188969520"/>
+        <c:crossAx val="-1256786800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6579,7 +6499,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="square"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
@@ -6923,7 +6843,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="triangle"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
@@ -7251,6 +7171,698 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Worst Worst</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dash"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$Y:$Y</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="0">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>605</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>735</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>930</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1035</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1115</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1215</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1325</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1425</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1515</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1610</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1725</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1805</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2115</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2220</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2315</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2405</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2515</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2601</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2704</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2802</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2936</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3010</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3107</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3215</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3304</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3403</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3508</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3624</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3705</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3801</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3903</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4022</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4119</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4205</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4301</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4406</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4501</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4605</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4703</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4819</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4908</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AC:$AC</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>330</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Best Best</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AG:$AG</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="0">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>303</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>433</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>518</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>623</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>753</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>843</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>913</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1118</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1208</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1318</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1443</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1518</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1603</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1723</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1818</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1903</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2118</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2218</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2323</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2413</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2553</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2623</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2718</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2823</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2938</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3033</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3108</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3223</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3313</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3443</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3503</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3608</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3713</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3803</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3933</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4028</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4123</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4228</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4303</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4408</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4513</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4618</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4703</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4813</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4903</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AK:$AK</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>440</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -7259,731 +7871,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="188970608"/>
-        <c:axId val="188973872"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredScatterSeries>
-              <c15:ser>
-                <c:idx val="3"/>
-                <c:order val="3"/>
-                <c:tx>
-                  <c:v>Worst Worst</c:v>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="19050" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent4"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="circle"/>
-                  <c:size val="5"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent4"/>
-                    </a:solidFill>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="accent4"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:marker>
-                <c:xVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$Y:$Y</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="1048576"/>
-                      <c:pt idx="0">
-                        <c:v>125</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>245</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>305</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>410</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>520</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>605</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>735</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>805</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>930</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>1035</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>1115</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>1215</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>1325</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>1425</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>1515</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>1610</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>1725</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>1805</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>1950</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>2015</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>2115</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>2220</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>2315</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>2405</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>2515</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>2601</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>2704</c:v>
-                      </c:pt>
-                      <c:pt idx="27">
-                        <c:v>2802</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>2936</c:v>
-                      </c:pt>
-                      <c:pt idx="29">
-                        <c:v>3010</c:v>
-                      </c:pt>
-                      <c:pt idx="30">
-                        <c:v>3107</c:v>
-                      </c:pt>
-                      <c:pt idx="31">
-                        <c:v>3215</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
-                        <c:v>3304</c:v>
-                      </c:pt>
-                      <c:pt idx="33">
-                        <c:v>3403</c:v>
-                      </c:pt>
-                      <c:pt idx="34">
-                        <c:v>3508</c:v>
-                      </c:pt>
-                      <c:pt idx="35">
-                        <c:v>3624</c:v>
-                      </c:pt>
-                      <c:pt idx="36">
-                        <c:v>3705</c:v>
-                      </c:pt>
-                      <c:pt idx="37">
-                        <c:v>3801</c:v>
-                      </c:pt>
-                      <c:pt idx="38">
-                        <c:v>3903</c:v>
-                      </c:pt>
-                      <c:pt idx="39">
-                        <c:v>4022</c:v>
-                      </c:pt>
-                      <c:pt idx="40">
-                        <c:v>4119</c:v>
-                      </c:pt>
-                      <c:pt idx="41">
-                        <c:v>4205</c:v>
-                      </c:pt>
-                      <c:pt idx="42">
-                        <c:v>4301</c:v>
-                      </c:pt>
-                      <c:pt idx="43">
-                        <c:v>4406</c:v>
-                      </c:pt>
-                      <c:pt idx="44">
-                        <c:v>4501</c:v>
-                      </c:pt>
-                      <c:pt idx="45">
-                        <c:v>4605</c:v>
-                      </c:pt>
-                      <c:pt idx="46">
-                        <c:v>4703</c:v>
-                      </c:pt>
-                      <c:pt idx="47">
-                        <c:v>4819</c:v>
-                      </c:pt>
-                      <c:pt idx="48">
-                        <c:v>4908</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:xVal>
-                <c:yVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$AC:$AC</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="1048576"/>
-                      <c:pt idx="0">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>80</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>80</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>130</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>180</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>210</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>210</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>210</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>230</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>230</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>250</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>250</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>250</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>250</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>280</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>280</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>280</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>280</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>280</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>310</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>330</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>330</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>330</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>330</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>330</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>330</c:v>
-                      </c:pt>
-                      <c:pt idx="27">
-                        <c:v>330</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>330</c:v>
-                      </c:pt>
-                      <c:pt idx="29">
-                        <c:v>330</c:v>
-                      </c:pt>
-                      <c:pt idx="30">
-                        <c:v>330</c:v>
-                      </c:pt>
-                      <c:pt idx="31">
-                        <c:v>330</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
-                        <c:v>330</c:v>
-                      </c:pt>
-                      <c:pt idx="33">
-                        <c:v>330</c:v>
-                      </c:pt>
-                      <c:pt idx="34">
-                        <c:v>330</c:v>
-                      </c:pt>
-                      <c:pt idx="35">
-                        <c:v>330</c:v>
-                      </c:pt>
-                      <c:pt idx="36">
-                        <c:v>330</c:v>
-                      </c:pt>
-                      <c:pt idx="37">
-                        <c:v>330</c:v>
-                      </c:pt>
-                      <c:pt idx="38">
-                        <c:v>330</c:v>
-                      </c:pt>
-                      <c:pt idx="39">
-                        <c:v>330</c:v>
-                      </c:pt>
-                      <c:pt idx="40">
-                        <c:v>330</c:v>
-                      </c:pt>
-                      <c:pt idx="41">
-                        <c:v>330</c:v>
-                      </c:pt>
-                      <c:pt idx="42">
-                        <c:v>330</c:v>
-                      </c:pt>
-                      <c:pt idx="43">
-                        <c:v>330</c:v>
-                      </c:pt>
-                      <c:pt idx="44">
-                        <c:v>330</c:v>
-                      </c:pt>
-                      <c:pt idx="45">
-                        <c:v>330</c:v>
-                      </c:pt>
-                      <c:pt idx="46">
-                        <c:v>330</c:v>
-                      </c:pt>
-                      <c:pt idx="47">
-                        <c:v>330</c:v>
-                      </c:pt>
-                      <c:pt idx="48">
-                        <c:v>330</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:yVal>
-                <c:smooth val="0"/>
-              </c15:ser>
-            </c15:filteredScatterSeries>
-            <c15:filteredScatterSeries>
-              <c15:ser>
-                <c:idx val="4"/>
-                <c:order val="4"/>
-                <c:tx>
-                  <c:v>Best Best</c:v>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="19050" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent5"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="circle"/>
-                  <c:size val="5"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent5"/>
-                    </a:solidFill>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="accent5"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:marker>
-                <c:xVal>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$AG:$AG</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="1048576"/>
-                      <c:pt idx="0">
-                        <c:v>103</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>248</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>303</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>433</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>518</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>623</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>753</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>843</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>913</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>1003</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>1118</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>1208</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>1318</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>1443</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>1518</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>1603</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>1723</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>1818</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>1903</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>2008</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>2118</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>2218</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>2323</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>2413</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>2553</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>2623</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>2718</c:v>
-                      </c:pt>
-                      <c:pt idx="27">
-                        <c:v>2823</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>2938</c:v>
-                      </c:pt>
-                      <c:pt idx="29">
-                        <c:v>3033</c:v>
-                      </c:pt>
-                      <c:pt idx="30">
-                        <c:v>3108</c:v>
-                      </c:pt>
-                      <c:pt idx="31">
-                        <c:v>3223</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
-                        <c:v>3313</c:v>
-                      </c:pt>
-                      <c:pt idx="33">
-                        <c:v>3443</c:v>
-                      </c:pt>
-                      <c:pt idx="34">
-                        <c:v>3503</c:v>
-                      </c:pt>
-                      <c:pt idx="35">
-                        <c:v>3608</c:v>
-                      </c:pt>
-                      <c:pt idx="36">
-                        <c:v>3713</c:v>
-                      </c:pt>
-                      <c:pt idx="37">
-                        <c:v>3803</c:v>
-                      </c:pt>
-                      <c:pt idx="38">
-                        <c:v>3933</c:v>
-                      </c:pt>
-                      <c:pt idx="39">
-                        <c:v>4028</c:v>
-                      </c:pt>
-                      <c:pt idx="40">
-                        <c:v>4123</c:v>
-                      </c:pt>
-                      <c:pt idx="41">
-                        <c:v>4228</c:v>
-                      </c:pt>
-                      <c:pt idx="42">
-                        <c:v>4303</c:v>
-                      </c:pt>
-                      <c:pt idx="43">
-                        <c:v>4408</c:v>
-                      </c:pt>
-                      <c:pt idx="44">
-                        <c:v>4513</c:v>
-                      </c:pt>
-                      <c:pt idx="45">
-                        <c:v>4618</c:v>
-                      </c:pt>
-                      <c:pt idx="46">
-                        <c:v>4703</c:v>
-                      </c:pt>
-                      <c:pt idx="47">
-                        <c:v>4813</c:v>
-                      </c:pt>
-                      <c:pt idx="48">
-                        <c:v>4903</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:xVal>
-                <c:yVal>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$AK:$AK</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="1048576"/>
-                      <c:pt idx="0">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>20</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>20</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>60</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>60</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>80</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>80</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>120</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>140</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>140</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>170</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>170</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>190</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>260</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>260</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>280</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>280</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>280</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>280</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>280</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>340</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>390</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>390</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>390</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>390</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>390</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>390</c:v>
-                      </c:pt>
-                      <c:pt idx="27">
-                        <c:v>390</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>390</c:v>
-                      </c:pt>
-                      <c:pt idx="29">
-                        <c:v>440</c:v>
-                      </c:pt>
-                      <c:pt idx="30">
-                        <c:v>440</c:v>
-                      </c:pt>
-                      <c:pt idx="31">
-                        <c:v>440</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
-                        <c:v>440</c:v>
-                      </c:pt>
-                      <c:pt idx="33">
-                        <c:v>440</c:v>
-                      </c:pt>
-                      <c:pt idx="34">
-                        <c:v>440</c:v>
-                      </c:pt>
-                      <c:pt idx="35">
-                        <c:v>440</c:v>
-                      </c:pt>
-                      <c:pt idx="36">
-                        <c:v>440</c:v>
-                      </c:pt>
-                      <c:pt idx="37">
-                        <c:v>440</c:v>
-                      </c:pt>
-                      <c:pt idx="38">
-                        <c:v>440</c:v>
-                      </c:pt>
-                      <c:pt idx="39">
-                        <c:v>440</c:v>
-                      </c:pt>
-                      <c:pt idx="40">
-                        <c:v>440</c:v>
-                      </c:pt>
-                      <c:pt idx="41">
-                        <c:v>440</c:v>
-                      </c:pt>
-                      <c:pt idx="42">
-                        <c:v>440</c:v>
-                      </c:pt>
-                      <c:pt idx="43">
-                        <c:v>440</c:v>
-                      </c:pt>
-                      <c:pt idx="44">
-                        <c:v>440</c:v>
-                      </c:pt>
-                      <c:pt idx="45">
-                        <c:v>440</c:v>
-                      </c:pt>
-                      <c:pt idx="46">
-                        <c:v>440</c:v>
-                      </c:pt>
-                      <c:pt idx="47">
-                        <c:v>440</c:v>
-                      </c:pt>
-                      <c:pt idx="48">
-                        <c:v>440</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:yVal>
-                <c:smooth val="0"/>
-              </c15:ser>
-            </c15:filteredScatterSeries>
-          </c:ext>
-        </c:extLst>
+        <c:axId val="-1256785712"/>
+        <c:axId val="-1256784080"/>
+        <c:extLst/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="188970608"/>
+        <c:axId val="-1256785712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5000"/>
@@ -8041,12 +7934,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="188973872"/>
+        <c:crossAx val="-1256784080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="188973872"/>
+        <c:axId val="-1256784080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8103,7 +7996,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="188970608"/>
+        <c:crossAx val="-1256785712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8615,7 +8508,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="square"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
@@ -8959,7 +8852,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="triangle"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
@@ -9287,6 +9180,698 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Worst Worst</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dash"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$Y:$Y</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="0">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>605</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>735</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>930</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1035</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1115</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1215</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1325</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1425</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1515</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1610</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1725</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1805</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2115</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2220</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2315</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2405</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2515</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2601</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2704</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2802</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2936</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3010</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3107</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3215</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3304</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3403</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3508</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3624</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3705</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3801</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3903</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4022</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4119</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4205</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4301</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4406</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4501</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4605</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4703</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4819</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4908</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AD:$AD</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="0">
+                  <c:v>73.888885000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>81.111114999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>73.888885000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70.55556</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>67.777780000000007</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>61.666668000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>47.77778</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>46.111109999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>34.444443</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28.88889</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30.555554999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32.77778</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>29.444445000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>25.555554999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>23.333334000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20.555554999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14.444445</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.7777776999999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10.555555</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.8888890000000007</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.3333333000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.7777777000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.3333333000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.7777777000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.7777777000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.7777777000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.7777777000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.7777777000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.7777777000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.7777777000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Best Best</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AG:$AG</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="0">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>303</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>433</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>518</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>623</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>753</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>843</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>913</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1118</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1208</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1318</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1443</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1518</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1603</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1723</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1818</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1903</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2118</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2218</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2323</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2413</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2553</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2623</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2718</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2823</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2938</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3033</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3108</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3223</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3313</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3443</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3503</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3608</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3713</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3803</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3933</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4028</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4123</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4228</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4303</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4408</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4513</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4618</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4703</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4813</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4903</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AL:$AL</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.222221000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.666665999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.666665999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.555557</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>58.333331999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31.666665999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41.666668000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44.444443</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27.222221000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25.555554999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.333333</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22.777778999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>37.22222</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30.555554999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>38.333331999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>26.11111</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.8888888000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>37.77778</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>32.22222</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>63.333331999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>48.888890000000004</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>30.555554999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>38.888890000000004</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>31.666665999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.7777776999999997</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>19.444445000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29.444445000000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>25.555554999999998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32.77778</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>11.111110999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.3333329999999997</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>41.111109999999996</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>28.88889</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>39.444443</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>21.666665999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>25.555554999999998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>24.444445000000002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>38.888890000000004</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>23.88889</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.4444447</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>22.222221000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>30.555554999999998</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>32.77778</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>25.555554999999998</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>24.444445000000002</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -9295,731 +9880,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="188967888"/>
-        <c:axId val="188968432"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredScatterSeries>
-              <c15:ser>
-                <c:idx val="3"/>
-                <c:order val="3"/>
-                <c:tx>
-                  <c:v>Worst Worst</c:v>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="19050" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent4"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="circle"/>
-                  <c:size val="5"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent4"/>
-                    </a:solidFill>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="accent4"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:marker>
-                <c:xVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$Y:$Y</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="1048576"/>
-                      <c:pt idx="0">
-                        <c:v>125</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>245</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>305</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>410</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>520</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>605</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>735</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>805</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>930</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>1035</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>1115</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>1215</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>1325</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>1425</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>1515</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>1610</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>1725</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>1805</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>1950</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>2015</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>2115</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>2220</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>2315</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>2405</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>2515</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>2601</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>2704</c:v>
-                      </c:pt>
-                      <c:pt idx="27">
-                        <c:v>2802</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>2936</c:v>
-                      </c:pt>
-                      <c:pt idx="29">
-                        <c:v>3010</c:v>
-                      </c:pt>
-                      <c:pt idx="30">
-                        <c:v>3107</c:v>
-                      </c:pt>
-                      <c:pt idx="31">
-                        <c:v>3215</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
-                        <c:v>3304</c:v>
-                      </c:pt>
-                      <c:pt idx="33">
-                        <c:v>3403</c:v>
-                      </c:pt>
-                      <c:pt idx="34">
-                        <c:v>3508</c:v>
-                      </c:pt>
-                      <c:pt idx="35">
-                        <c:v>3624</c:v>
-                      </c:pt>
-                      <c:pt idx="36">
-                        <c:v>3705</c:v>
-                      </c:pt>
-                      <c:pt idx="37">
-                        <c:v>3801</c:v>
-                      </c:pt>
-                      <c:pt idx="38">
-                        <c:v>3903</c:v>
-                      </c:pt>
-                      <c:pt idx="39">
-                        <c:v>4022</c:v>
-                      </c:pt>
-                      <c:pt idx="40">
-                        <c:v>4119</c:v>
-                      </c:pt>
-                      <c:pt idx="41">
-                        <c:v>4205</c:v>
-                      </c:pt>
-                      <c:pt idx="42">
-                        <c:v>4301</c:v>
-                      </c:pt>
-                      <c:pt idx="43">
-                        <c:v>4406</c:v>
-                      </c:pt>
-                      <c:pt idx="44">
-                        <c:v>4501</c:v>
-                      </c:pt>
-                      <c:pt idx="45">
-                        <c:v>4605</c:v>
-                      </c:pt>
-                      <c:pt idx="46">
-                        <c:v>4703</c:v>
-                      </c:pt>
-                      <c:pt idx="47">
-                        <c:v>4819</c:v>
-                      </c:pt>
-                      <c:pt idx="48">
-                        <c:v>4908</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:xVal>
-                <c:yVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$AD:$AD</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="1048576"/>
-                      <c:pt idx="0">
-                        <c:v>73.888885000000002</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>81.111114999999998</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>73.888885000000002</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>70.55556</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>67.777780000000007</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>61.666668000000001</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>47.77778</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>46.111109999999996</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>34.444443</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>28.88889</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>30.555554999999998</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>30</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>32.77778</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>29.444445000000002</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>30</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>25.555554999999998</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>23.333334000000001</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>20.555554999999998</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>14.444445</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>7.7777776999999997</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>10.555555</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>8.8888890000000007</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>3.3333333000000001</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>2.7777777000000001</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>3.3333333000000001</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="27">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>2.7777777000000001</c:v>
-                      </c:pt>
-                      <c:pt idx="29">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="30">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="31">
-                        <c:v>2.7777777000000001</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
-                        <c:v>2.7777777000000001</c:v>
-                      </c:pt>
-                      <c:pt idx="33">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="34">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="35">
-                        <c:v>2.7777777000000001</c:v>
-                      </c:pt>
-                      <c:pt idx="36">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="37">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="38">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="39">
-                        <c:v>2.7777777000000001</c:v>
-                      </c:pt>
-                      <c:pt idx="40">
-                        <c:v>2.7777777000000001</c:v>
-                      </c:pt>
-                      <c:pt idx="41">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="42">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="43">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="44">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="45">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="46">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="47">
-                        <c:v>2.7777777000000001</c:v>
-                      </c:pt>
-                      <c:pt idx="48">
-                        <c:v>0</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:yVal>
-                <c:smooth val="0"/>
-              </c15:ser>
-            </c15:filteredScatterSeries>
-            <c15:filteredScatterSeries>
-              <c15:ser>
-                <c:idx val="4"/>
-                <c:order val="4"/>
-                <c:tx>
-                  <c:v>Best Best</c:v>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="19050" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent5"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="circle"/>
-                  <c:size val="5"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent5"/>
-                    </a:solidFill>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="accent5"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:marker>
-                <c:xVal>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$AG:$AG</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="1048576"/>
-                      <c:pt idx="0">
-                        <c:v>103</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>248</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>303</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>433</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>518</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>623</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>753</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>843</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>913</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>1003</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>1118</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>1208</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>1318</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>1443</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>1518</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>1603</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>1723</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>1818</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>1903</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>2008</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>2118</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>2218</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>2323</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>2413</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>2553</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>2623</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>2718</c:v>
-                      </c:pt>
-                      <c:pt idx="27">
-                        <c:v>2823</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>2938</c:v>
-                      </c:pt>
-                      <c:pt idx="29">
-                        <c:v>3033</c:v>
-                      </c:pt>
-                      <c:pt idx="30">
-                        <c:v>3108</c:v>
-                      </c:pt>
-                      <c:pt idx="31">
-                        <c:v>3223</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
-                        <c:v>3313</c:v>
-                      </c:pt>
-                      <c:pt idx="33">
-                        <c:v>3443</c:v>
-                      </c:pt>
-                      <c:pt idx="34">
-                        <c:v>3503</c:v>
-                      </c:pt>
-                      <c:pt idx="35">
-                        <c:v>3608</c:v>
-                      </c:pt>
-                      <c:pt idx="36">
-                        <c:v>3713</c:v>
-                      </c:pt>
-                      <c:pt idx="37">
-                        <c:v>3803</c:v>
-                      </c:pt>
-                      <c:pt idx="38">
-                        <c:v>3933</c:v>
-                      </c:pt>
-                      <c:pt idx="39">
-                        <c:v>4028</c:v>
-                      </c:pt>
-                      <c:pt idx="40">
-                        <c:v>4123</c:v>
-                      </c:pt>
-                      <c:pt idx="41">
-                        <c:v>4228</c:v>
-                      </c:pt>
-                      <c:pt idx="42">
-                        <c:v>4303</c:v>
-                      </c:pt>
-                      <c:pt idx="43">
-                        <c:v>4408</c:v>
-                      </c:pt>
-                      <c:pt idx="44">
-                        <c:v>4513</c:v>
-                      </c:pt>
-                      <c:pt idx="45">
-                        <c:v>4618</c:v>
-                      </c:pt>
-                      <c:pt idx="46">
-                        <c:v>4703</c:v>
-                      </c:pt>
-                      <c:pt idx="47">
-                        <c:v>4813</c:v>
-                      </c:pt>
-                      <c:pt idx="48">
-                        <c:v>4903</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:xVal>
-                <c:yVal>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$AL:$AL</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="1048576"/>
-                      <c:pt idx="0">
-                        <c:v>15</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>27.222221000000001</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>21.666665999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>16.666665999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>40.555557</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>58.333331999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>31.666665999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>41.666668000000001</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>44.444443</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>15</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>27.222221000000001</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>25.555554999999998</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>13.333333</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>22.777778999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>37.22222</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>30.555554999999998</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>38.333331999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>26.11111</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>3.8888888000000001</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>37.77778</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>32.22222</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>63.333331999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>48.888890000000004</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>30.555554999999998</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>20</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>38.888890000000004</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>31.666665999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="27">
-                        <c:v>7.7777776999999997</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>19.444445000000002</c:v>
-                      </c:pt>
-                      <c:pt idx="29">
-                        <c:v>29.444445000000002</c:v>
-                      </c:pt>
-                      <c:pt idx="30">
-                        <c:v>25.555554999999998</c:v>
-                      </c:pt>
-                      <c:pt idx="31">
-                        <c:v>32.77778</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
-                        <c:v>11.111110999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="33">
-                        <c:v>8.3333329999999997</c:v>
-                      </c:pt>
-                      <c:pt idx="34">
-                        <c:v>41.111109999999996</c:v>
-                      </c:pt>
-                      <c:pt idx="35">
-                        <c:v>28.88889</c:v>
-                      </c:pt>
-                      <c:pt idx="36">
-                        <c:v>39.444443</c:v>
-                      </c:pt>
-                      <c:pt idx="37">
-                        <c:v>21.666665999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="38">
-                        <c:v>25.555554999999998</c:v>
-                      </c:pt>
-                      <c:pt idx="39">
-                        <c:v>24.444445000000002</c:v>
-                      </c:pt>
-                      <c:pt idx="40">
-                        <c:v>38.888890000000004</c:v>
-                      </c:pt>
-                      <c:pt idx="41">
-                        <c:v>23.88889</c:v>
-                      </c:pt>
-                      <c:pt idx="42">
-                        <c:v>4.4444447</c:v>
-                      </c:pt>
-                      <c:pt idx="43">
-                        <c:v>22.222221000000001</c:v>
-                      </c:pt>
-                      <c:pt idx="44">
-                        <c:v>30</c:v>
-                      </c:pt>
-                      <c:pt idx="45">
-                        <c:v>30.555554999999998</c:v>
-                      </c:pt>
-                      <c:pt idx="46">
-                        <c:v>32.77778</c:v>
-                      </c:pt>
-                      <c:pt idx="47">
-                        <c:v>25.555554999999998</c:v>
-                      </c:pt>
-                      <c:pt idx="48">
-                        <c:v>24.444445000000002</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:yVal>
-                <c:smooth val="0"/>
-              </c15:ser>
-            </c15:filteredScatterSeries>
-          </c:ext>
-        </c:extLst>
+        <c:axId val="-1256780816"/>
+        <c:axId val="-1257750304"/>
+        <c:extLst/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="188967888"/>
+        <c:axId val="-1256780816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5000"/>
@@ -10077,12 +9943,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="188968432"/>
+        <c:crossAx val="-1257750304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="188968432"/>
+        <c:axId val="-1257750304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10139,7 +10005,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="188967888"/>
+        <c:crossAx val="-1256780816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12999,7 +12865,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="73" workbookViewId="0" zoomToFit="1"/>
+    <sheetView workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -13010,7 +12876,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="73" workbookViewId="0" zoomToFit="1"/>
+    <sheetView workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -13021,7 +12887,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="73" workbookViewId="0" zoomToFit="1"/>
+    <sheetView workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -13032,7 +12898,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="73" workbookViewId="0" zoomToFit="1"/>
+    <sheetView workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -13043,7 +12909,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="73" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -13054,7 +12920,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8663836" cy="6289110"/>
+    <xdr:ext cx="8657545" cy="6284799"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -13081,7 +12947,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8663836" cy="6289110"/>
+    <xdr:ext cx="8667750" cy="6296025"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -13108,7 +12974,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8663836" cy="6289110"/>
+    <xdr:ext cx="8667750" cy="6296025"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -13135,7 +13001,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8663836" cy="6289110"/>
+    <xdr:ext cx="8667750" cy="6296025"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -13162,7 +13028,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8663836" cy="6289110"/>
+    <xdr:ext cx="8667750" cy="6296025"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -13450,7 +13316,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
